--- a/cafe_info.xlsx
+++ b/cafe_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="260">
   <si>
     <t>Name</t>
   </si>
@@ -100,7 +100,7 @@
     <t>4,000원</t>
   </si>
   <si>
-    <t>https://file.notion.so/f/f/861c0ed5-c7cf-4345-aef6-769aca2267bb/...</t>
+    <t>https://file.notion.so/f/f/861c0ed5-c7cf-4345-aef6-769aca2267bb/e6fe4b0f-3561-4aef-b707-31a29f479ea9/%EC%A7%84%EC%A3%BC%EB%A6%AC.mov?id=8aa7c5c4-643a-4079-95d5-62d7b3330ea4&amp;table=block&amp;spaceId=861c0ed5-c7cf-4345-aef6-769aca2267bb&amp;expirationTimestamp=1719216000000&amp;signature=gskBkL7vRJdxj0ZMeP96Zx1Dl8flmgSHEgYhURdd42I</t>
   </si>
   <si>
     <t>평일 12:00~22:00
@@ -139,6 +139,9 @@
     <t>3,500원</t>
   </si>
   <si>
+    <t>https://file.notion.so/f/f/861c0ed5-c7cf-4345-aef6-769aca2267bb/250a06fb-9137-4310-ad49-0103d22f26a5/%EB%8D%B8%EB%9D%BC.mov?id=a46f41c0-4717-474f-b244-7aaad30bacc2&amp;table=block&amp;spaceId=861c0ed5-c7cf-4345-aef6-769aca2267bb&amp;expirationTimestamp=1719216000000&amp;signature=QsJWPRzLehSEq_adffl3kPgnr7cTOzkbZDnjXF5XFLU</t>
+  </si>
+  <si>
     <t>매일 08:00~22:00</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>시간 제한 없음</t>
+  </si>
+  <si>
+    <t>https://file.notion.so/f/f/861c0ed5-c7cf-4345-aef6-769aca2267bb/616468fc-6f1a-4f48-b730-c4f5f6f9489c/%EB%B2%A8%ED%95%98%EC%9A%B0%EC%8A%A4.mov?id=ad22ac69-07c4-4172-af74-afd396def8a5&amp;table=block&amp;spaceId=861c0ed5-c7cf-4345-aef6-769aca2267bb&amp;expirationTimestamp=1719216000000&amp;signature=ybrKN5pZ-JrsFwQT_T3ljUNplo0VbnueEv58REv8kp8</t>
   </si>
   <si>
     <t>매일 11:00~21:00
@@ -1346,10 +1352,10 @@
         <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -1381,7 +1387,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>37.58454</v>
@@ -1390,22 +1396,22 @@
         <v>126.9976</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
@@ -1420,7 +1426,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2">
         <v>37.58232</v>
@@ -1429,22 +1435,22 @@
         <v>126.9993</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>32</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2">
         <v>37.58213</v>
@@ -1485,22 +1491,22 @@
         <v>126.9993</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>32</v>
@@ -1521,7 +1527,7 @@
         <v>0.0</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="2">
         <v>1.0</v>
@@ -1530,7 +1536,7 @@
         <v>0.0</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T6" s="2">
         <v>1.0</v>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>37.58182</v>
@@ -1550,22 +1556,22 @@
         <v>126.9995</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>31</v>
@@ -1615,7 +1621,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2">
         <v>37.5815</v>
@@ -1624,22 +1630,22 @@
         <v>126.9996</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>32</v>
@@ -1660,7 +1666,7 @@
         <v>0.0</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="2">
         <v>1.0</v>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2">
         <v>37.58186</v>
@@ -1680,22 +1686,22 @@
         <v>126.9999</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>32</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2">
         <v>37.58156</v>
@@ -1727,22 +1733,22 @@
         <v>127.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>32</v>
@@ -1765,7 +1771,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2">
         <v>37.58229</v>
@@ -1774,22 +1780,22 @@
         <v>127.0004</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>31</v>
@@ -1828,7 +1834,7 @@
         <v>3.0</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W11" s="2">
         <v>1.0</v>
@@ -1839,7 +1845,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2">
         <v>37.58242</v>
@@ -1848,22 +1854,22 @@
         <v>127.0011</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>32</v>
@@ -1886,7 +1892,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2">
         <v>37.58248</v>
@@ -1895,22 +1901,22 @@
         <v>127.0016</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>31</v>
@@ -1940,7 +1946,7 @@
         <v>2.0</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T13" s="2">
         <v>1.0</v>
@@ -1951,7 +1957,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2">
         <v>37.58202</v>
@@ -1960,19 +1966,19 @@
         <v>127.0004</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>31</v>
@@ -2004,7 +2010,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2">
         <v>37.58213</v>
@@ -2013,22 +2019,22 @@
         <v>127.0009</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>32</v>
@@ -2058,7 +2064,7 @@
         <v>0.0</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T15" s="2">
         <v>1.0</v>
@@ -2069,7 +2075,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2">
         <v>37.58204</v>
@@ -2078,22 +2084,22 @@
         <v>127.0006</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>31</v>
@@ -2134,7 +2140,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2">
         <v>37.58177</v>
@@ -2143,22 +2149,22 @@
         <v>127.0005</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>31</v>
@@ -2199,7 +2205,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2">
         <v>37.58189</v>
@@ -2208,24 +2214,24 @@
         <v>127.0017</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2">
         <v>37.58151</v>
@@ -2234,22 +2240,22 @@
         <v>127.0006</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>31</v>
@@ -2279,7 +2285,7 @@
         <v>0.0</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T19" s="2">
         <v>1.0</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="2">
         <v>37.598405</v>
@@ -2299,22 +2305,22 @@
         <v>127.054409</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>31</v>
@@ -2346,7 +2352,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2">
         <v>37.598225</v>
@@ -2355,22 +2361,22 @@
         <v>127.054467</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>31</v>
@@ -2408,7 +2414,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2">
         <v>37.598259</v>
@@ -2417,22 +2423,22 @@
         <v>127.056572</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>31</v>
@@ -2450,7 +2456,7 @@
         <v>17.0</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="2">
         <v>1.0</v>
@@ -2458,7 +2464,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B23" s="2">
         <v>37.598267</v>
@@ -2467,22 +2473,22 @@
         <v>127.05679</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>31</v>
@@ -2503,7 +2509,7 @@
         <v>10.0</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="2">
         <v>1.0</v>
@@ -2511,7 +2517,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2">
         <v>37.598614</v>
@@ -2520,22 +2526,22 @@
         <v>127.057414</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>31</v>
@@ -2559,7 +2565,7 @@
         <v>5.0</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T24" s="2">
         <v>1.0</v>
@@ -2567,7 +2573,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B25" s="2">
         <v>37.598675</v>
@@ -2576,22 +2582,22 @@
         <v>127.057873</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>31</v>
@@ -2621,7 +2627,7 @@
         <v>2.0</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T25" s="2">
         <v>1.0</v>
@@ -2632,7 +2638,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2">
         <v>37.598633</v>
@@ -2641,22 +2647,22 @@
         <v>127.058051</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>31</v>
@@ -2679,7 +2685,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B27" s="2">
         <v>37.583174</v>
@@ -2688,22 +2694,22 @@
         <v>127.00347</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>32</v>
@@ -2718,7 +2724,7 @@
         <v>1.0</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="2">
         <v>5.0</v>
@@ -2727,13 +2733,13 @@
         <v>3.0</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T27" s="2">
         <v>1.0</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W27" s="2">
         <v>1.0</v>
@@ -2744,7 +2750,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B28" s="2">
         <v>37.583088</v>
@@ -2753,10 +2759,10 @@
         <v>127.003974</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>39</v>
@@ -2765,10 +2771,10 @@
         <v>28</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>31</v>
@@ -2791,7 +2797,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B29" s="2">
         <v>37.592775</v>
@@ -2800,22 +2806,22 @@
         <v>127.0045</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>31</v>
@@ -2856,7 +2862,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2">
         <v>37.58114</v>
@@ -2865,22 +2871,22 @@
         <v>127.0047</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>33</v>
@@ -2903,7 +2909,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B31" s="2">
         <v>37.58097</v>
@@ -2912,22 +2918,22 @@
         <v>127.0041</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>31</v>
@@ -2956,7 +2962,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B32" s="2">
         <v>37.58203</v>
@@ -2965,22 +2971,22 @@
         <v>127.0035</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>31</v>
@@ -3016,7 +3022,7 @@
         <v>2.0</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W32" s="2">
         <v>1.0</v>
@@ -3027,7 +3033,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B33" s="2">
         <v>37.5898398</v>
@@ -3036,24 +3042,24 @@
         <v>126.9994091</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B34" s="2">
         <v>37.6088949</v>
@@ -3062,24 +3068,24 @@
         <v>126.9327099</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B35" s="2">
         <v>37.5874194</v>
@@ -3088,22 +3094,22 @@
         <v>127.0008075</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>31</v>
@@ -3126,7 +3132,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B36" s="2">
         <v>37.585721</v>
@@ -3135,10 +3141,10 @@
         <v>127.0003414</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>27</v>
@@ -3147,10 +3153,10 @@
         <v>28</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>31</v>
@@ -3180,7 +3186,7 @@
         <v>5.0</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T36" s="2">
         <v>1.0</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2">
         <v>37.5868081</v>
@@ -3197,24 +3203,24 @@
         <v>127.0016585</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B38" s="2">
         <v>37.5964519</v>
@@ -3223,22 +3229,22 @@
         <v>127.0612721</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>31</v>
@@ -3267,7 +3273,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2">
         <v>37.5956947</v>
@@ -3276,10 +3282,10 @@
         <v>127.0628962</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>39</v>
@@ -3288,10 +3294,10 @@
         <v>40</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>34</v>
@@ -3305,7 +3311,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B40" s="2">
         <v>37.595882</v>
@@ -3314,19 +3320,19 @@
         <v>127.060299</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>34</v>
@@ -3338,7 +3344,7 @@
         <v>2.0</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N40" s="2">
         <v>1.0</v>
@@ -3346,7 +3352,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B41" s="2">
         <v>37.5958483</v>
@@ -3355,22 +3361,22 @@
         <v>127.060479</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>31</v>
@@ -3409,7 +3415,7 @@
         <v>1.0</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W41" s="2">
         <v>1.0</v>
@@ -3420,7 +3426,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B42" s="2">
         <v>37.5957008</v>
@@ -3429,10 +3435,10 @@
         <v>127.0607099</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>39</v>
@@ -3441,10 +3447,10 @@
         <v>28</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>31</v>
@@ -3476,7 +3482,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B43" s="2">
         <v>37.5958409</v>
@@ -3485,19 +3491,19 @@
         <v>127.060961</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>32</v>
@@ -3521,7 +3527,7 @@
         <v>3.0</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T43" s="2">
         <v>1.0</v>
@@ -3529,7 +3535,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B44" s="2">
         <v>37.5956167</v>
@@ -3538,22 +3544,22 @@
         <v>127.0611194</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>31</v>

--- a/cafe_info.xlsx
+++ b/cafe_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
   <si>
     <t>Name</t>
   </si>
@@ -1043,72 +1043,147 @@
     <t>에이바우트 커피</t>
   </si>
   <si>
+    <t>서울 동대문구 경희대로3길 28</t>
+  </si>
+  <si>
     <t>2.900원</t>
   </si>
   <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#d5f1698ae33748d3945de5d6c1225011</t>
   </si>
   <si>
+    <t>매일 7:30~22:00</t>
+  </si>
+  <si>
     <t>비하인드미</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 회기로 125 1층</t>
+  </si>
+  <si>
+    <t>매일 10:00~21:00
+*22:30 라스트오더</t>
+  </si>
+  <si>
     <t>카페 에이유</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 경희대로1가길 12 1층</t>
+  </si>
+  <si>
+    <t>매일 08:00~24:00</t>
+  </si>
+  <si>
     <t>다인석</t>
   </si>
   <si>
     <t>MODSPLACE</t>
   </si>
   <si>
+    <t>서울 동대문구 경희대로3길 11</t>
+  </si>
+  <si>
+    <t>월~금 10:00~23:00
+토,일 12:00~22:30</t>
+  </si>
+  <si>
     <t>8번가</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 경희대로3길 8 1층8번가카페</t>
+  </si>
+  <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#1f4a3e2fb070422cb2f7717ef2736aa0</t>
   </si>
   <si>
+    <t>월~토 11:00~24:00
+*22:30 라스트오더
+일 11:00~22:00
+*21:30 라스트오더</t>
+  </si>
+  <si>
     <t>카페 밍기적</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 경희대로 9-1 1층</t>
+  </si>
+  <si>
     <t>2,000원</t>
   </si>
   <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#c55b64a7dc8c48618c2dfd88bcd5d8f1</t>
   </si>
   <si>
+    <t>월~금 11:00~23:00
+토 11~21:00
+*일 정기휴무</t>
+  </si>
+  <si>
     <t>아인스카페</t>
   </si>
   <si>
     <t>만석 시에는 2시간 권장 부탁드려요~!</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 경희대로 5 가동 3층</t>
+  </si>
+  <si>
     <t>시간 제한 없음 / 만석 시 2시간 권장</t>
   </si>
   <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#5e65d1478b3744119df0890608b55c52</t>
   </si>
   <si>
+    <t>월~금 12:30~24:00
+*23:00 라스트오더
+토,일 13:00~23:00
+*22:00 라스트오더</t>
+  </si>
+  <si>
     <t>녹원</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 경희대로 14 지층</t>
+  </si>
+  <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#8103f44996ae45ce9e7890cd562a0ad6</t>
   </si>
   <si>
+    <t>월~수,금~일 12:00~21:30
+*목 정기휴무</t>
+  </si>
+  <si>
     <t>커피메소드</t>
   </si>
   <si>
+    <t>서울 동대문구 회기로21길 34 2층 커피메소드</t>
+  </si>
+  <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#f392b1d73dca4006be97df666a503f1d</t>
   </si>
   <si>
+    <t>월~금 11:00~22:00
+토,일 12:30~20:00</t>
+  </si>
+  <si>
     <t>카페오크라</t>
   </si>
   <si>
     <t>요청시 콘센트 제공해드립니다!</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 회기로21길 26</t>
+  </si>
+  <si>
+    <t>매일 08:00~23:00</t>
+  </si>
+  <si>
     <t>벤첸트</t>
   </si>
   <si>
+    <t>서울 동대문구 회기로21길 8-8 1층</t>
+  </si>
+  <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#a9e1a17fb4ae4dfd81fd8a7f2974e222</t>
   </si>
   <si>
@@ -1118,26 +1193,50 @@
     <t>에티켓만 지켜주신다면 환영합니다! 1인 1메뉴 필수입니다!</t>
   </si>
   <si>
+    <t>서울 동대문구 회기로 161-11 1층</t>
+  </si>
+  <si>
+    <t>화~금 12:00~22:00
+토,일 12:30~22:00</t>
+  </si>
+  <si>
     <t>배트콩</t>
   </si>
   <si>
+    <t>서울특별시 동대문구 경희대로4길 52 1층 배트콩 커피숍</t>
+  </si>
+  <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#3afc3fd8a8e64bc093724013c4ff4e14</t>
   </si>
   <si>
+    <t>월~금 08:00~22:00
+토,일 11:00~22:00</t>
+  </si>
+  <si>
     <t>ALGO COFFEE</t>
   </si>
   <si>
+    <t>서울 동대문구 경희대로6길 5 1층</t>
+  </si>
+  <si>
     <t>6시간 권장</t>
   </si>
   <si>
     <t>https://www.notion.so/neulbo/4a9a16619bc84010aaf1181b3f308392?pvs=4#4a09f1161eb04a37aa9f55c43a8c2d23</t>
+  </si>
+  <si>
+    <t>월~금 11:00~21:00
+*20:30 라스트오더
+일 12:00~19:00
+*18:30 라스트오더
+*토 정기휴무</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1177,6 +1276,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF222225"/>
+      <name val="-apple-system"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1229,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1275,6 +1379,9 @@
     </xf>
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -3144,10 +3251,10 @@
         <v>183</v>
       </c>
       <c r="B29" s="7">
-        <v>37.592775</v>
+        <v>37.582758</v>
       </c>
       <c r="C29" s="7">
-        <v>127.0045</v>
+        <v>127.004605</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>184</v>
@@ -4558,19 +4665,29 @@
       <c r="A57" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="7">
+        <v>37.5929324</v>
+      </c>
+      <c r="C57" s="15">
+        <v>127.0510482</v>
+      </c>
       <c r="D57" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E57" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="F57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>31</v>
@@ -4602,13 +4719,20 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+        <v>325</v>
+      </c>
+      <c r="B58" s="7">
+        <v>37.5915543</v>
+      </c>
+      <c r="C58" s="15">
+        <v>127.0506068</v>
+      </c>
       <c r="D58" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E58" s="16" t="s">
+        <v>326</v>
+      </c>
       <c r="F58" s="15" t="s">
         <v>46</v>
       </c>
@@ -4616,7 +4740,10 @@
         <v>28</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>31</v>
@@ -4657,19 +4784,29 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="B59" s="7">
+        <v>37.5923094</v>
+      </c>
+      <c r="C59" s="15">
+        <v>127.0515547</v>
+      </c>
       <c r="D59" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E59" s="16" t="s">
+        <v>329</v>
+      </c>
       <c r="F59" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="I59" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="J59" s="7" t="s">
         <v>32</v>
       </c>
@@ -4698,7 +4835,7 @@
         <v>3.0</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="T59" s="7">
         <v>1.0</v>
@@ -4709,19 +4846,29 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+        <v>332</v>
+      </c>
+      <c r="B60" s="7">
+        <v>37.5925963</v>
+      </c>
+      <c r="C60" s="15">
+        <v>127.0518815</v>
+      </c>
       <c r="D60" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E60" s="16" t="s">
+        <v>333</v>
+      </c>
       <c r="F60" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="I60" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="J60" s="7" t="s">
         <v>31</v>
       </c>
@@ -4752,13 +4899,20 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="B61" s="7">
+        <v>37.5927702</v>
+      </c>
+      <c r="C61" s="15">
+        <v>127.0519653</v>
+      </c>
       <c r="D61" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E61" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="F61" s="7" t="s">
         <v>27</v>
       </c>
@@ -4766,7 +4920,10 @@
         <v>106</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>328</v>
+        <v>337</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>31</v>
@@ -4805,7 +4962,7 @@
         <v>0.0</v>
       </c>
       <c r="V61" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="W61" s="7">
         <v>2.0</v>
@@ -4816,21 +4973,31 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+        <v>339</v>
+      </c>
+      <c r="B62" s="7">
+        <v>37.5925235</v>
+      </c>
+      <c r="C62" s="15">
+        <v>127.052432</v>
+      </c>
       <c r="D62" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E62" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="F62" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>331</v>
+        <v>342</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>32</v>
@@ -4860,7 +5027,7 @@
         <v>3.0</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="T62" s="7">
         <v>2.0</v>
@@ -4871,21 +5038,31 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="B63" s="7">
+        <v>37.5920336</v>
+      </c>
+      <c r="C63" s="15">
+        <v>127.052158</v>
+      </c>
       <c r="D63" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>334</v>
+        <v>345</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>335</v>
+        <v>348</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>32</v>
@@ -4908,13 +5085,20 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+        <v>350</v>
+      </c>
+      <c r="B64" s="7">
+        <v>37.5927304</v>
+      </c>
+      <c r="C64" s="15">
+        <v>127.0527277</v>
+      </c>
       <c r="D64" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E64" s="16" t="s">
+        <v>351</v>
+      </c>
       <c r="F64" s="15" t="s">
         <v>46</v>
       </c>
@@ -4922,7 +5106,10 @@
         <v>106</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>337</v>
+        <v>352</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>31</v>
@@ -4961,7 +5148,7 @@
         <v>1.0</v>
       </c>
       <c r="V64" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="W64" s="7">
         <v>2.0</v>
@@ -4972,13 +5159,20 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+        <v>354</v>
+      </c>
+      <c r="B65" s="7">
+        <v>37.5928679</v>
+      </c>
+      <c r="C65" s="15">
+        <v>127.0531025</v>
+      </c>
       <c r="D65" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E65" s="16" t="s">
+        <v>355</v>
+      </c>
       <c r="F65" s="7" t="s">
         <v>168</v>
       </c>
@@ -4986,7 +5180,10 @@
         <v>28</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>339</v>
+        <v>356</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>31</v>
@@ -5016,7 +5213,7 @@
         <v>7.0</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="T65" s="7">
         <v>3.0</v>
@@ -5027,12 +5224,19 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+        <v>358</v>
+      </c>
+      <c r="B66" s="7">
+        <v>37.5925983</v>
+      </c>
+      <c r="C66" s="17">
+        <v>127.0534313</v>
+      </c>
       <c r="D66" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>39</v>
@@ -5040,6 +5244,9 @@
       <c r="G66" s="7" t="s">
         <v>136</v>
       </c>
+      <c r="I66" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="J66" s="7" t="s">
         <v>31</v>
       </c>
@@ -5079,13 +5286,20 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+        <v>362</v>
+      </c>
+      <c r="B67" s="7">
+        <v>37.591561</v>
+      </c>
+      <c r="C67" s="7">
+        <v>127.053422</v>
+      </c>
       <c r="D67" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E67" s="16" t="s">
+        <v>363</v>
+      </c>
       <c r="F67" s="7" t="s">
         <v>39</v>
       </c>
@@ -5093,7 +5307,10 @@
         <v>28</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>343</v>
+        <v>364</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>32</v>
@@ -5116,12 +5333,19 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+        <v>365</v>
+      </c>
+      <c r="B68" s="7">
+        <v>37.591171</v>
+      </c>
+      <c r="C68" s="15">
+        <v>127.054196</v>
+      </c>
       <c r="D68" s="15" t="s">
-        <v>345</v>
+        <v>366</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>39</v>
@@ -5129,6 +5353,9 @@
       <c r="G68" s="7" t="s">
         <v>174</v>
       </c>
+      <c r="I68" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="J68" s="7" t="s">
         <v>32</v>
       </c>
@@ -5150,10 +5377,20 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+        <v>369</v>
+      </c>
+      <c r="B69" s="7">
+        <v>37.5915229</v>
+      </c>
+      <c r="C69" s="15">
+        <v>127.0551624</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>370</v>
+      </c>
       <c r="F69" s="15" t="s">
         <v>46</v>
       </c>
@@ -5161,26 +5398,84 @@
         <v>136</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>347</v>
+        <v>371</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>2.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+        <v>373</v>
+      </c>
+      <c r="B70" s="7">
+        <v>37.5933361</v>
+      </c>
+      <c r="C70" s="15">
+        <v>127.0531156</v>
+      </c>
       <c r="D70" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="E70" s="16" t="s">
+        <v>374</v>
+      </c>
       <c r="F70" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>350</v>
+        <v>376</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">

--- a/cafe_info.xlsx
+++ b/cafe_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="428">
   <si>
     <t>Name</t>
   </si>
@@ -1382,7 +1382,7 @@
 *월 정기휴무</t>
   </si>
   <si>
-    <t>혜화</t>
+    <t>해화</t>
   </si>
   <si>
     <t>서울 종로구 대명1길 16-12 카페 해화</t>
@@ -6385,6 +6385,9 @@
       <c r="E79" s="18" t="s">
         <v>426</v>
       </c>
+      <c r="F79" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G79" s="7" t="s">
         <v>80</v>
       </c>

--- a/cafe_info.xlsx
+++ b/cafe_info.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="데이터1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="얼굴가려" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="486">
   <si>
     <t>Name</t>
   </si>
@@ -403,19 +404,6 @@
     <t>매일 11:00~21:00</t>
   </si>
   <si>
-    <t>학림</t>
-  </si>
-  <si>
-    <t>카공 시간에 대한 제한은 없지만, 웨이팅이 있는 편이고, 시끄러워서 카공하기에 좋은 분위기는 아니에요… (회전율이 많이 높은 편입니다.)</t>
-  </si>
-  <si>
-    <t>서울 종로구 대학로 119 2층 학림카페</t>
-  </si>
-  <si>
-    <t>매일 10:00~23:00
-22:00 라스트오더</t>
-  </si>
-  <si>
     <t>학림 커피</t>
   </si>
   <si>
@@ -625,7 +613,7 @@
     <t>3,800원</t>
   </si>
   <si>
-    <t>https://file.notion.so/f/f/861c0ed5-c7cf-4345-aef6-769aca2267bb/5697b147-6876-41dc-bf7b-88c5f9fa14a3/%EB%8F%99%EC%88%AD%EB%8F%99%EC%BB%A4%ED%94%BC.mov?id=8046a19f-c4e8-4f7c-936a-be802a6e1dbb&amp;table=block&amp;spaceId=861c0ed5-c7cf-4345-aef6-769aca2267bb&amp;expirationTimestamp=1719165600000&amp;signature=r_NvfhheQ7x06AJ0HvVs9HFVtTeIA52hbPBtHZAMQUE</t>
+    <t>https://youtube.com/shorts/_Xr4w1vHihU?feature=share</t>
   </si>
   <si>
     <t>매일 11:30~21:30</t>
@@ -1390,12 +1378,217 @@
   <si>
     <t>https://youtube.com/shorts/_NRiOv3t41w</t>
   </si>
+  <si>
+    <t>창경궁로240</t>
+  </si>
+  <si>
+    <t>가게 사정상 금,토,일 운영하니 이용에 참고 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>서울 종로구 창경궁로 240-37 1층</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/6m7XXgI501c?feature=share</t>
+  </si>
+  <si>
+    <t>금토일 11:00~21:00
+금 19:30 라스트오더
+토일20:30 라스트오더</t>
+  </si>
+  <si>
+    <t>카페 비스까미노</t>
+  </si>
+  <si>
+    <t>3~5시에 이용하시기에 좋지만, 해당 시간에 스터디나 공간 예약이 있을 경우 사용이 어려우실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>서울 종로구 창경궁로26길 4 2층</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/oNahJwEX8q0?feature=share</t>
+  </si>
+  <si>
+    <t>하늘아래바람</t>
+  </si>
+  <si>
+    <t>2~5시에 오시면 비교적 한산한 분위기에서 이용하실 수 있습니다.</t>
+  </si>
+  <si>
+    <t>서울 종로구 창경궁로26길 35</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/okTIDHDaMgU?feature=share</t>
+  </si>
+  <si>
+    <t>월~금 11:00~21:00
+토,일 12:00~22:00</t>
+  </si>
+  <si>
+    <t>혜화동 우리</t>
+  </si>
+  <si>
+    <t>서울 종로구 대학로11길 38-6 1층</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/TJZfebcc4fE?feature=share</t>
+  </si>
+  <si>
+    <t>월~토 12:00~22:00
+21:00 라스트 오더
+*일 정기휴무</t>
+  </si>
+  <si>
+    <t>릴리마를렌</t>
+  </si>
+  <si>
+    <t>노래 꺼달라는 무리한 부탁만 하지 않으시면 카공족 환영합니다~ 공간 대여도 가능하니 많은 이용 부탁드려요!</t>
+  </si>
+  <si>
+    <t>서울 종로구 대학로9길 17</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/Z2l_gIIuL2Y?feature=share</t>
+  </si>
+  <si>
+    <t>매일 11:00~24:00
+*재료 소진이나 외부 일정 있으면 22~23시 영업 종료</t>
+  </si>
+  <si>
+    <t>하루온도</t>
+  </si>
+  <si>
+    <t>마감시간이 유동적이니 이용에 참고 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>서울 종로구 대학로9길 22-5 2층 하루온도 혜화</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/GZre0vy-7dQ?feature=share</t>
+  </si>
+  <si>
+    <t>월~금 11:00~20:00
+토, 일 12:00~20:00
+*재료 소진 시 조기마감</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카페아르코 </t>
+  </si>
+  <si>
+    <t>매너있는 카공 부탁드려요.</t>
+  </si>
+  <si>
+    <t>서울 종로구 대학로8길 7 아르코예술극장 1층</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/TxlN-XcVWVk?feature=share</t>
+  </si>
+  <si>
+    <t>운영 시간 유동적</t>
+  </si>
+  <si>
+    <t>헤이스윗</t>
+  </si>
+  <si>
+    <t>서울 종로구 동숭2길 3-4 1층 헤이스윗</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/A7IRDHUUTWg?feature=share</t>
+  </si>
+  <si>
+    <t>화~일 11:00~20:00
+*월 정기휴무</t>
+  </si>
+  <si>
+    <t>카페한약방</t>
+  </si>
+  <si>
+    <t>서울 종로구 동숭2길 9</t>
+  </si>
+  <si>
+    <t>평일 시간 제한 없음, 주말 웨이팅 있을 시 권장 X</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/BVygtIqOuWg?feature=share</t>
+  </si>
+  <si>
+    <t>월~목 12:00~21:00
+금~일 12:00~22:00
+월~목 20:30 라스트오더 
+토, 일 21:30 라스트오더</t>
+  </si>
+  <si>
+    <t>있음(사람 너무 많아 파악 X)</t>
+  </si>
+  <si>
+    <t>타이슨커피</t>
+  </si>
+  <si>
+    <t>서울 종로구 동숭길 50 1층</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1시간 권장 </t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/_h-9n_aYcZc?feature=share</t>
+  </si>
+  <si>
+    <t>매일 12:00~20:00</t>
+  </si>
+  <si>
+    <t>알케믹스</t>
+  </si>
+  <si>
+    <t>점심 시간 이후는 한산한 분위기입니다.</t>
+  </si>
+  <si>
+    <t>서울 종로구 낙산길 4 201호 알케믹스</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/Hm--oOIVvQ8?feature=share</t>
+  </si>
+  <si>
+    <t>일~목 11:00~21:00
+20:40 라스트오더
+금, 토 11:00~22:00
+21:40 라스트오더</t>
+  </si>
+  <si>
+    <t>엘빈</t>
+  </si>
+  <si>
+    <t>서울 종로구 창경궁로 271-1 2층 엘빈커피</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/Ni4K-lMt_bg?feature=share</t>
+  </si>
+  <si>
+    <t>월~금 10:00~22:00
+토 12:00~22:00
+일 12:00~20:00</t>
+  </si>
+  <si>
+    <t>학림</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: 모자이크 완
+0: 영상없음
+</t>
+  </si>
+  <si>
+    <t>커피메소드(methodz</t>
+  </si>
+  <si>
+    <t>혜화동 우리-&gt;우리집</t>
+  </si>
+  <si>
+    <t>추가해야할 카페</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1445,6 +1638,11 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1497,13 +1695,43 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1559,15 +1787,42 @@
     <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2883,10 +3138,10 @@
         <v>124</v>
       </c>
       <c r="B18" s="7">
-        <v>37.58189</v>
+        <v>37.58151</v>
       </c>
       <c r="C18" s="7">
-        <v>127.0017</v>
+        <v>127.0006</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>125</v>
@@ -2895,81 +3150,111 @@
         <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="H18" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="I18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0.0</v>
       </c>
       <c r="Y18" s="7">
         <v>0.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B19" s="7">
-        <v>37.58151</v>
+        <v>37.598405</v>
       </c>
       <c r="C19" s="7">
-        <v>127.0006</v>
+        <v>127.054409</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K19" s="7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L19" s="7">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="O19" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7">
         <v>2.0</v>
       </c>
       <c r="R19" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y19" s="7">
         <v>0.0</v>
@@ -2977,58 +3262,64 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B20" s="7">
-        <v>37.598405</v>
+        <v>37.598225</v>
       </c>
       <c r="C20" s="7">
-        <v>127.054409</v>
+        <v>127.054467</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K20" s="7">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="L20" s="7">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N20" s="7">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="O20" s="7">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="S20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="R20" s="7">
-        <v>2.0</v>
+      <c r="T20" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y20" s="7">
         <v>0.0</v>
@@ -3036,25 +3327,25 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B21" s="7">
-        <v>37.598225</v>
+        <v>37.598259</v>
       </c>
       <c r="C21" s="7">
-        <v>127.054467</v>
+        <v>127.056572</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>143</v>
@@ -3066,33 +3357,21 @@
         <v>32</v>
       </c>
       <c r="K21" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="7">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="O21" s="7">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="7">
         <v>1.0</v>
       </c>
       <c r="Y21" s="7">
@@ -3101,49 +3380,52 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="7">
-        <v>37.598259</v>
+        <v>37.598267</v>
       </c>
       <c r="C22" s="7">
-        <v>127.056572</v>
+        <v>127.05679</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K22" s="7">
-        <v>16.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>6.0</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N22" s="7">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="O22" s="7">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7">
         <v>1.0</v>
@@ -3154,54 +3436,57 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23" s="7">
-        <v>37.598267</v>
+        <v>37.598614</v>
       </c>
       <c r="C23" s="7">
-        <v>127.05679</v>
+        <v>127.057414</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="7">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="L23" s="7">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="T23" s="7">
         <v>1.0</v>
       </c>
       <c r="Y23" s="7">
@@ -3210,52 +3495,58 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B24" s="7">
-        <v>37.598614</v>
+        <v>37.598675</v>
       </c>
       <c r="C24" s="7">
-        <v>127.057414</v>
+        <v>127.057873</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K24" s="7">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="L24" s="7">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="7">
-        <v>4.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>9.0</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q24" s="7">
-        <v>5.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>2.0</v>
       </c>
       <c r="S24" s="7" t="s">
         <v>63</v>
@@ -3263,73 +3554,58 @@
       <c r="T24" s="7">
         <v>1.0</v>
       </c>
+      <c r="U24" s="7">
+        <v>1.0</v>
+      </c>
       <c r="Y24" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" s="7">
-        <v>37.598675</v>
+        <v>37.598633</v>
       </c>
       <c r="C25" s="7">
-        <v>127.057873</v>
+        <v>127.058051</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>164</v>
+        <v>41</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K25" s="7">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="L25" s="7">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="7">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="O25" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T25" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U25" s="7">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y25" s="7">
         <v>0.0</v>
@@ -3337,49 +3613,67 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" s="7">
-        <v>37.598633</v>
+        <v>37.583174</v>
       </c>
       <c r="C26" s="7">
-        <v>127.058051</v>
+        <v>127.00347</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K26" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N26" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>6.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="W26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y26" s="7">
         <v>0.0</v>
@@ -3387,67 +3681,49 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" s="7">
-        <v>37.583174</v>
+        <v>37.583088</v>
       </c>
       <c r="C27" s="7">
-        <v>127.00347</v>
+        <v>127.003974</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>176</v>
+        <v>29</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7">
-        <v>14.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>3.0</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N27" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="R27" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="T27" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="W27" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="X27" s="7">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>4.0</v>
       </c>
       <c r="Y27" s="7">
         <v>0.0</v>
@@ -3455,31 +3731,31 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="7">
-        <v>37.583088</v>
+        <v>37.582758</v>
       </c>
       <c r="C28" s="7">
-        <v>127.003974</v>
+        <v>127.004605</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>182</v>
+        <v>171</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>32</v>
@@ -3488,134 +3764,140 @@
         <v>9.0</v>
       </c>
       <c r="L28" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="7">
         <v>3.0</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28" s="7">
-        <v>8.0</v>
-      </c>
       <c r="O28" s="7">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y28" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B29" s="7">
-        <v>37.582758</v>
+        <v>37.58114</v>
       </c>
       <c r="C29" s="7">
-        <v>127.004605</v>
+        <v>127.0047</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K29" s="7">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="L29" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N29" s="7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O29" s="7">
         <v>3.0</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T29" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U29" s="7">
-        <v>1.0</v>
-      </c>
       <c r="Y29" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B30" s="7">
-        <v>37.58114</v>
+        <v>37.58097</v>
       </c>
       <c r="C30" s="7">
-        <v>127.0047</v>
+        <v>127.0041</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L30" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="7">
+        <v>14.0</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>3.0</v>
+      <c r="Q30" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y30" s="7">
         <v>0.0</v>
@@ -3623,37 +3905,37 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B31" s="7">
-        <v>37.58097</v>
+        <v>37.58203</v>
       </c>
       <c r="C31" s="7">
-        <v>127.0041</v>
+        <v>127.0035</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K31" s="7">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L31" s="7">
         <v>2.0</v>
@@ -3662,15 +3944,33 @@
         <v>33</v>
       </c>
       <c r="N31" s="7">
-        <v>14.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>4.0</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="S31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="R31" s="7">
+      <c r="T31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W31" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="X31" s="7">
         <v>1.0</v>
       </c>
       <c r="Y31" s="7">
@@ -3679,73 +3979,28 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B32" s="7">
-        <v>37.58203</v>
+        <v>37.5898398</v>
       </c>
       <c r="C32" s="7">
-        <v>127.0035</v>
+        <v>126.9994091</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T32" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="W32" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="X32" s="7">
-        <v>1.0</v>
       </c>
       <c r="Y32" s="7">
         <v>0.0</v>
@@ -3756,10 +4011,10 @@
         <v>206</v>
       </c>
       <c r="B33" s="7">
-        <v>37.5898398</v>
+        <v>37.6088949</v>
       </c>
       <c r="C33" s="7">
-        <v>126.9994091</v>
+        <v>126.9327099</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>207</v>
@@ -3768,10 +4023,10 @@
         <v>208</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>209</v>
@@ -3785,10 +4040,10 @@
         <v>210</v>
       </c>
       <c r="B34" s="7">
-        <v>37.6088949</v>
+        <v>37.5874194</v>
       </c>
       <c r="C34" s="7">
-        <v>126.9327099</v>
+        <v>127.0008075</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>211</v>
@@ -3797,128 +4052,128 @@
         <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>2.0</v>
       </c>
       <c r="Y34" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B35" s="7">
-        <v>37.5874194</v>
+        <v>37.585721</v>
       </c>
       <c r="C35" s="7">
-        <v>127.0008075</v>
+        <v>127.0003414</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K35" s="7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L35" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N35" s="7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O35" s="7">
         <v>2.0</v>
       </c>
+      <c r="P35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T35" s="7">
+        <v>1.0</v>
+      </c>
       <c r="Y35" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="7">
-        <v>37.585721</v>
+        <v>37.5868081</v>
       </c>
       <c r="C36" s="7">
-        <v>127.0003414</v>
+        <v>127.0016585</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="R36" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="S36" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="T36" s="7">
-        <v>1.0</v>
       </c>
       <c r="Y36" s="7">
         <v>0.0</v>
@@ -3929,10 +4184,10 @@
         <v>224</v>
       </c>
       <c r="B37" s="7">
-        <v>37.5868081</v>
+        <v>37.5964519</v>
       </c>
       <c r="C37" s="7">
-        <v>127.0016585</v>
+        <v>127.0612721</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>225</v>
@@ -3944,10 +4199,37 @@
         <v>40</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>60</v>
+        <v>133</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y37" s="7">
         <v>0.0</v>
@@ -3955,16 +4237,16 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B38" s="7">
-        <v>37.5964519</v>
+        <v>37.5956947</v>
       </c>
       <c r="C38" s="7">
-        <v>127.0612721</v>
+        <v>127.0628962</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>230</v>
@@ -3973,7 +4255,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>231</v>
@@ -3982,31 +4264,13 @@
         <v>232</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K38" s="7">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L38" s="7">
         <v>4.0</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="R38" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="Y38" s="7">
-        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4014,25 +4278,22 @@
         <v>233</v>
       </c>
       <c r="B39" s="7">
-        <v>37.5956947</v>
+        <v>37.595882</v>
       </c>
       <c r="C39" s="7">
-        <v>127.0628962</v>
+        <v>127.060299</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>236</v>
@@ -4041,10 +4302,19 @@
         <v>35</v>
       </c>
       <c r="K39" s="7">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L39" s="7">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4052,10 +4322,10 @@
         <v>237</v>
       </c>
       <c r="B40" s="7">
-        <v>37.595882</v>
+        <v>37.5958483</v>
       </c>
       <c r="C40" s="7">
-        <v>127.060299</v>
+        <v>127.060479</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>238</v>
@@ -4064,27 +4334,60 @@
         <v>239</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="L40" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="M40" s="7" t="s">
+      <c r="Q40" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="V40" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="7">
+      <c r="W40" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="X40" s="7">
         <v>1.0</v>
       </c>
       <c r="Y40" s="7">
@@ -4093,40 +4396,40 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B41" s="7">
-        <v>37.5958483</v>
+        <v>37.5957008</v>
       </c>
       <c r="C41" s="7">
-        <v>127.060479</v>
+        <v>127.0607099</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K41" s="7">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L41" s="7">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>33</v>
@@ -4141,28 +4444,10 @@
         <v>35</v>
       </c>
       <c r="Q41" s="7">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="R41" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T41" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U41" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="W41" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="X41" s="7">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y41" s="7">
         <v>0.0</v>
@@ -4170,22 +4455,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" s="7">
-        <v>37.5957008</v>
+        <v>37.5958409</v>
       </c>
       <c r="C42" s="7">
-        <v>127.0607099</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>247</v>
+        <v>127.060961</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>248</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>29</v>
@@ -4197,7 +4479,7 @@
         <v>250</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K42" s="7">
         <v>4.0</v>
@@ -4206,22 +4488,22 @@
         <v>4.0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N42" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q42" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="R42" s="7">
         <v>3.0</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T42" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y42" s="7">
         <v>0.0</v>
@@ -4232,52 +4514,52 @@
         <v>251</v>
       </c>
       <c r="B43" s="7">
-        <v>37.5958409</v>
+        <v>37.5956167</v>
       </c>
       <c r="C43" s="7">
-        <v>127.060961</v>
+        <v>127.0611194</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>253</v>
+        <v>107</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="L43" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="N43" s="7">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q43" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T43" s="7">
-        <v>1.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>2.0</v>
       </c>
       <c r="Y43" s="7">
         <v>0.0</v>
@@ -4285,55 +4567,67 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B44" s="7">
-        <v>37.5956167</v>
+        <v>37.584176</v>
       </c>
       <c r="C44" s="7">
-        <v>127.0611194</v>
+        <v>126.9980977</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I44" s="7" t="s">
         <v>260</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K44" s="7">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="L44" s="7">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N44" s="7">
-        <v>7.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>2.0</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="Q44" s="7">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="R44" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="T44" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U44" s="7">
+        <v>8.0</v>
       </c>
       <c r="Y44" s="7">
         <v>0.0</v>
@@ -4341,67 +4635,46 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B45" s="7">
-        <v>37.584176</v>
+        <v>37.584124</v>
       </c>
       <c r="C45" s="7">
-        <v>126.9980977</v>
+        <v>126.9972469</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>265</v>
+        <v>29</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K45" s="7">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="L45" s="7">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N45" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O45" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="R45" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="T45" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U45" s="7">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y45" s="7">
         <v>0.0</v>
@@ -4409,46 +4682,67 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="7">
+        <v>37.5903644</v>
+      </c>
+      <c r="C46" s="7">
+        <v>126.9935755</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="B46" s="7">
-        <v>37.584124</v>
-      </c>
-      <c r="C46" s="7">
-        <v>126.9972469</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>269</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="H46" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="I46" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K46" s="7">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L46" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="M46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S46" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N46" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="O46" s="7">
-        <v>1.0</v>
+      <c r="T46" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="U46" s="7">
+        <v>2.0</v>
       </c>
       <c r="Y46" s="7">
         <v>0.0</v>
@@ -4456,67 +4750,49 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B47" s="7">
-        <v>37.5903644</v>
+        <v>37.5895456</v>
       </c>
       <c r="C47" s="7">
-        <v>126.9935755</v>
+        <v>126.9940117</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K47" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L47" s="7">
         <v>2.0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N47" s="7">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="O47" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="R47" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T47" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="U47" s="7">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y47" s="7">
         <v>0.0</v>
@@ -4524,102 +4800,117 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B48" s="7">
-        <v>37.5895456</v>
+        <v>37.5889883</v>
       </c>
       <c r="C48" s="7">
-        <v>126.9940117</v>
+        <v>126.9943742</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>279</v>
+        <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K48" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="L48" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="M48" s="7" t="s">
+      <c r="N48" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="S48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N48" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y48" s="7">
-        <v>0.0</v>
+      <c r="T48" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U48" s="7">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B49" s="7">
-        <v>37.5889883</v>
+        <v>37.5881066</v>
       </c>
       <c r="C49" s="7">
-        <v>126.9943742</v>
+        <v>126.9969614</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K49" s="7">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="L49" s="7">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O49" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q49" s="7">
         <v>4.0</v>
@@ -4627,73 +4918,37 @@
       <c r="R49" s="7">
         <v>3.0</v>
       </c>
-      <c r="S49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T49" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U49" s="7">
+      <c r="Y49" s="7">
         <v>1.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B50" s="7">
-        <v>37.5881066</v>
+        <v>37.5892731</v>
       </c>
       <c r="C50" s="7">
-        <v>126.9969614</v>
+        <v>126.9971405</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="J50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N50" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="O50" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="R50" s="7">
-        <v>3.0</v>
-      </c>
       <c r="Y50" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4701,10 +4956,10 @@
         <v>292</v>
       </c>
       <c r="B51" s="7">
-        <v>37.5892731</v>
+        <v>37.594266</v>
       </c>
       <c r="C51" s="7">
-        <v>126.9971405</v>
+        <v>127.0564834</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>293</v>
@@ -4713,192 +4968,213 @@
         <v>294</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>295</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y51" s="7">
-        <v>0.0</v>
+        <v>297</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B52" s="7">
-        <v>37.594266</v>
+        <v>37.5937286</v>
       </c>
       <c r="C52" s="7">
-        <v>127.0564834</v>
+        <v>127.058368</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K52" s="7">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="L52" s="7">
         <v>3.0</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N52" s="7">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="O52" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="R52" s="7">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B53" s="7">
-        <v>37.5937286</v>
+        <v>37.5928692</v>
       </c>
       <c r="C53" s="7">
-        <v>127.058368</v>
+        <v>127.0575181</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K53" s="7">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L53" s="7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N53" s="7">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="O53" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="Y53" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B54" s="7">
-        <v>37.5928692</v>
+        <v>37.5926739</v>
       </c>
       <c r="C54" s="7">
-        <v>127.0575181</v>
+        <v>127.0575262</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K54" s="7">
         <v>6.0</v>
       </c>
       <c r="L54" s="7">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N54" s="7">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="O54" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="Y54" s="7">
         <v>0.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" s="7">
-        <v>37.5926739</v>
+        <v>37.5944244</v>
       </c>
       <c r="C55" s="7">
-        <v>127.0575262</v>
+        <v>127.0602173</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>316</v>
@@ -4910,19 +5186,37 @@
         <v>32</v>
       </c>
       <c r="K55" s="7">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="L55" s="7">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="M55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S55" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N55" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="O55" s="7">
-        <v>10.0</v>
+      <c r="T55" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="U55" s="7">
+        <v>0.0</v>
       </c>
       <c r="Y55" s="7">
         <v>0.0</v>
@@ -4933,13 +5227,13 @@
         <v>318</v>
       </c>
       <c r="B56" s="7">
-        <v>37.5944244</v>
-      </c>
-      <c r="C56" s="7">
-        <v>127.0602173</v>
+        <v>37.5929324</v>
+      </c>
+      <c r="C56" s="15">
+        <v>127.0510482</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>319</v>
@@ -4948,77 +5242,65 @@
         <v>47</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K56" s="7">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L56" s="7">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="7">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="O56" s="7">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="7">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="R56" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S56" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T56" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="U56" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y56" s="7">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" s="7">
-        <v>37.5929324</v>
+        <v>37.5915543</v>
       </c>
       <c r="C57" s="15">
-        <v>127.0510482</v>
+        <v>127.0506068</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H57" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>325</v>
       </c>
       <c r="I57" s="7" t="s">
@@ -5028,28 +5310,40 @@
         <v>32</v>
       </c>
       <c r="K57" s="7">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="L57" s="7">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N57" s="7">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="O57" s="7">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q57" s="7">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="R57" s="7">
-        <v>23.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U57" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5057,13 +5351,13 @@
         <v>327</v>
       </c>
       <c r="B58" s="7">
-        <v>37.5915543</v>
+        <v>37.5923094</v>
       </c>
       <c r="C58" s="15">
-        <v>127.0506068</v>
+        <v>127.0515547</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>328</v>
@@ -5074,41 +5368,38 @@
       <c r="G58" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="I58" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="J58" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K58" s="7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L58" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="O58" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q58" s="7">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="R58" s="7">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="T58" s="7">
         <v>1.0</v>
@@ -5125,34 +5416,34 @@
         <v>331</v>
       </c>
       <c r="B59" s="7">
-        <v>37.5923094</v>
+        <v>37.5925963</v>
       </c>
       <c r="C59" s="15">
-        <v>127.0515547</v>
+        <v>127.0518815</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>47</v>
+      <c r="F59" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>333</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K59" s="7">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L59" s="7">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>34</v>
@@ -5161,25 +5452,16 @@
         <v>2.0</v>
       </c>
       <c r="O59" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q59" s="7">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="R59" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="T59" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U59" s="7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y59" s="7">
         <v>0.0</v>
@@ -5187,25 +5469,28 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" s="7">
+        <v>37.5927702</v>
+      </c>
+      <c r="C60" s="15">
+        <v>127.0519653</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="B60" s="7">
-        <v>37.5925963</v>
-      </c>
-      <c r="C60" s="15">
-        <v>127.0518815</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" s="16" t="s">
+      <c r="F60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>337</v>
@@ -5214,27 +5499,45 @@
         <v>32</v>
       </c>
       <c r="K60" s="7">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="L60" s="7">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="M60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N60" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N60" s="7">
+      <c r="Q60" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T60" s="7">
+        <v>16.0</v>
+      </c>
+      <c r="U60" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="V60" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="W60" s="7">
         <v>2.0</v>
       </c>
-      <c r="O60" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="R60" s="7">
+      <c r="X60" s="7">
         <v>2.0</v>
       </c>
       <c r="Y60" s="7">
@@ -5246,164 +5549,137 @@
         <v>338</v>
       </c>
       <c r="B61" s="7">
-        <v>37.5927702</v>
+        <v>37.5925235</v>
       </c>
       <c r="C61" s="15">
-        <v>127.0519653</v>
+        <v>127.052432</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>28</v>
+      <c r="F61" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K61" s="7">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="L61" s="7">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N61" s="7">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="O61" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q61" s="7">
         <v>3.0</v>
       </c>
       <c r="R61" s="7">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="T61" s="7">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="U61" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V61" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="W61" s="7">
         <v>2.0</v>
-      </c>
-      <c r="X61" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="Y61" s="7">
-        <v>0.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B62" s="7">
-        <v>37.5925235</v>
+        <v>37.5920336</v>
       </c>
       <c r="C62" s="15">
-        <v>127.052432</v>
+        <v>127.052158</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>135</v>
+        <v>344</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>47</v>
+        <v>345</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K62" s="7">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L62" s="7">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N62" s="7">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="O62" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q62" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="R62" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="S62" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="T62" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="U62" s="7">
-        <v>2.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B63" s="7">
-        <v>37.5920336</v>
+        <v>37.5927304</v>
       </c>
       <c r="C63" s="15">
-        <v>127.052158</v>
+        <v>127.0527277</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="F63" s="17" t="s">
         <v>350</v>
       </c>
+      <c r="F63" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="G63" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>351</v>
@@ -5412,22 +5688,49 @@
         <v>352</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L63" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K63" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="L63" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M63" s="7" t="s">
+      <c r="N63" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S63" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N63" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="O63" s="7">
-        <v>14.0</v>
+      <c r="T63" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="U63" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="V63" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="W63" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="X63" s="7">
+        <v>2.0</v>
       </c>
       <c r="Y63" s="7">
         <v>0.0</v>
@@ -5438,22 +5741,22 @@
         <v>353</v>
       </c>
       <c r="B64" s="7">
-        <v>37.5927304</v>
+        <v>37.5928679</v>
       </c>
       <c r="C64" s="15">
-        <v>127.0527277</v>
+        <v>127.0531025</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>47</v>
+      <c r="F64" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>355</v>
@@ -5468,46 +5771,34 @@
         <v>4.0</v>
       </c>
       <c r="L64" s="7">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="M64" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N64" s="7">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O64" s="7">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q64" s="7">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="R64" s="7">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="T64" s="7">
         <v>3.0</v>
       </c>
       <c r="U64" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="V64" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="W64" s="7">
         <v>2.0</v>
-      </c>
-      <c r="X64" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="Y64" s="7">
-        <v>0.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -5515,25 +5806,22 @@
         <v>357</v>
       </c>
       <c r="B65" s="7">
-        <v>37.5928679</v>
-      </c>
-      <c r="C65" s="15">
-        <v>127.0531025</v>
+        <v>37.5925983</v>
+      </c>
+      <c r="C65" s="17">
+        <v>127.0534313</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>135</v>
+        <v>358</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>359</v>
+        <v>133</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>360</v>
@@ -5542,10 +5830,10 @@
         <v>32</v>
       </c>
       <c r="K65" s="7">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="L65" s="7">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="M65" s="7" t="s">
         <v>33</v>
@@ -5554,25 +5842,28 @@
         <v>4.0</v>
       </c>
       <c r="O65" s="7">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P65" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S65" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q65" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="R65" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="T65" s="7">
         <v>3.0</v>
       </c>
       <c r="U65" s="7">
-        <v>2.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="Y65" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -5580,61 +5871,46 @@
         <v>361</v>
       </c>
       <c r="B66" s="7">
-        <v>37.5925983</v>
-      </c>
-      <c r="C66" s="17">
-        <v>127.0534313</v>
+        <v>37.591561</v>
+      </c>
+      <c r="C66" s="7">
+        <v>127.053422</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>362</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>363</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>137</v>
+        <v>29</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>364</v>
+        <v>219</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K66" s="7">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="L66" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N66" s="7">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="O66" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q66" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="R66" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S66" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T66" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="U66" s="7">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y66" s="7">
         <v>0.0</v>
@@ -5642,16 +5918,16 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" s="7">
+        <v>37.591171</v>
+      </c>
+      <c r="C67" s="15">
+        <v>127.054196</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="B67" s="7">
-        <v>37.591561</v>
-      </c>
-      <c r="C67" s="7">
-        <v>127.053422</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>366</v>
@@ -5660,34 +5936,28 @@
         <v>40</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K67" s="7">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="L67" s="7">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="M67" s="7" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="7">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="O67" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Y67" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -5695,22 +5965,25 @@
         <v>368</v>
       </c>
       <c r="B68" s="7">
-        <v>37.591171</v>
+        <v>37.5915229</v>
       </c>
       <c r="C68" s="15">
-        <v>127.054196</v>
-      </c>
-      <c r="D68" s="15" t="s">
+        <v>127.0551624</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="F68" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>371</v>
@@ -5719,19 +5992,31 @@
         <v>33</v>
       </c>
       <c r="K68" s="7">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="L68" s="7">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N68" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P68" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N68" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O68" s="7">
-        <v>1.0</v>
+      <c r="Q68" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="Y68" s="7">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -5739,54 +6024,45 @@
         <v>372</v>
       </c>
       <c r="B69" s="7">
-        <v>37.5915229</v>
+        <v>37.5933361</v>
       </c>
       <c r="C69" s="15">
-        <v>127.0551624</v>
+        <v>127.0531156</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>47</v>
+      <c r="F69" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="L69" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K69" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="L69" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="N69" s="7">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="O69" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="R69" s="7">
         <v>2.0</v>
       </c>
       <c r="Y69" s="7">
@@ -5795,37 +6071,37 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B70" s="7">
-        <v>37.5933361</v>
-      </c>
-      <c r="C70" s="15">
-        <v>127.0531156</v>
+        <v>37.58431</v>
+      </c>
+      <c r="C70" s="7">
+        <v>126.9992</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>382</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K70" s="7">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L70" s="7">
         <v>4.0</v>
@@ -5834,10 +6110,37 @@
         <v>33</v>
       </c>
       <c r="N70" s="7">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="O70" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q70" s="7">
         <v>2.0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T70" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="U70" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="V70" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="W70" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="X70" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y70" s="7">
         <v>0.0</v>
@@ -5845,76 +6148,67 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B71" s="7">
-        <v>37.58431</v>
+        <v>37.58438</v>
       </c>
       <c r="C71" s="7">
-        <v>126.9992</v>
+        <v>126.9988</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>385</v>
+        <v>60</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K71" s="7">
         <v>4.0</v>
       </c>
       <c r="L71" s="7">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N71" s="7">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O71" s="7">
         <v>0.0</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q71" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="R71" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T71" s="7">
         <v>2.0</v>
       </c>
-      <c r="R71" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T71" s="7">
-        <v>6.0</v>
-      </c>
       <c r="U71" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="V71" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="W71" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="X71" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y71" s="7">
         <v>0.0</v>
@@ -5922,66 +6216,57 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B72" s="7">
-        <v>37.58438</v>
+        <v>37.5871</v>
       </c>
       <c r="C72" s="7">
-        <v>126.9988</v>
+        <v>126.9967</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>391</v>
+        <v>133</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="L72" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K72" s="7">
+      <c r="N72" s="7">
         <v>4.0</v>
       </c>
-      <c r="L72" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M72" s="7" t="s">
+      <c r="O72" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P72" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N72" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="O72" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="Q72" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="R72" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="S72" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="T72" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="U72" s="7">
         <v>0.0</v>
       </c>
       <c r="Y72" s="7">
@@ -5990,46 +6275,46 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B73" s="7">
-        <v>37.5871</v>
+        <v>37.58322</v>
       </c>
       <c r="C73" s="7">
-        <v>126.9967</v>
+        <v>126.9973</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>396</v>
+        <v>60</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>398</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K73" s="7">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="L73" s="7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M73" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="7">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O73" s="7">
         <v>1.0</v>
@@ -6041,7 +6326,7 @@
         <v>2.0</v>
       </c>
       <c r="R73" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y73" s="7">
         <v>0.0</v>
@@ -6049,126 +6334,117 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B74" s="7">
-        <v>37.58322</v>
+        <v>37.58261</v>
       </c>
       <c r="C74" s="7">
-        <v>126.9973</v>
+        <v>126.998</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>402</v>
+        <v>80</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="L74" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K74" s="7">
+      <c r="N74" s="7">
         <v>3.0</v>
       </c>
-      <c r="L74" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M74" s="7" t="s">
+      <c r="O74" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P74" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N74" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="O74" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q74" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R74" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T74" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U74" s="7">
         <v>1.0</v>
       </c>
       <c r="Y74" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B75" s="7">
-        <v>37.58261</v>
+        <v>37.58244</v>
       </c>
       <c r="C75" s="7">
-        <v>126.998</v>
+        <v>126.9977</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>407</v>
+        <v>60</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K75" s="7">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="L75" s="7">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N75" s="7">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="O75" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q75" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="R75" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S75" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T75" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U75" s="7">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y75" s="7">
         <v>1.0</v>
@@ -6176,49 +6452,76 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B76" s="7">
-        <v>37.58244</v>
+        <v>37.58292</v>
       </c>
       <c r="C76" s="7">
-        <v>126.9977</v>
+        <v>126.999</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K76" s="7">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="L76" s="7">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="M76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O76" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P76" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N76" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="O76" s="7">
-        <v>4.0</v>
+      <c r="Q76" s="7">
+        <v>60.0</v>
+      </c>
+      <c r="R76" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T76" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U76" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="V76" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="W76" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="X76" s="7">
+        <v>1.0</v>
       </c>
       <c r="Y76" s="7">
         <v>1.0</v>
@@ -6226,25 +6529,25 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B77" s="7">
-        <v>37.58292</v>
+        <v>37.58293</v>
       </c>
       <c r="C77" s="7">
-        <v>126.999</v>
+        <v>126.9992</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>419</v>
@@ -6253,52 +6556,43 @@
         <v>420</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K77" s="7">
         <v>7.0</v>
       </c>
       <c r="L77" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" s="7">
         <v>6.0</v>
       </c>
-      <c r="M77" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N77" s="7">
-        <v>1.0</v>
-      </c>
       <c r="O77" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q77" s="7">
-        <v>60.0</v>
+        <v>2.0</v>
       </c>
       <c r="R77" s="7">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="T77" s="7">
         <v>1.0</v>
       </c>
       <c r="U77" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="V77" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="W77" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="X77" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y77" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -6306,43 +6600,43 @@
         <v>421</v>
       </c>
       <c r="B78" s="7">
-        <v>37.58293</v>
+        <v>37.58298</v>
       </c>
       <c r="C78" s="7">
-        <v>126.9992</v>
+        <v>127.0</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="18" t="s">
         <v>422</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="10" t="s">
         <v>423</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>424</v>
+        <v>219</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K78" s="7">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="L78" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N78" s="7">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="O78" s="7">
         <v>0.0</v>
@@ -6351,13 +6645,13 @@
         <v>35</v>
       </c>
       <c r="Q78" s="7">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="R78" s="7">
         <v>0.0</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="T78" s="7">
         <v>1.0</v>
@@ -6371,115 +6665,726 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B79" s="7">
+        <v>37.5821758</v>
+      </c>
+      <c r="C79" s="7">
+        <v>126.9985058</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B79" s="7">
-        <v>37.58298</v>
-      </c>
-      <c r="C79" s="7">
-        <v>127.0</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="7" t="s">
         <v>426</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="9" t="s">
         <v>427</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>223</v>
+        <v>428</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L79" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M79" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K79" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="L79" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="M79" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="N79" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O79" s="7">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q79" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T79" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U79" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Y79" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B80" s="7">
+        <v>37.5818121</v>
+      </c>
+      <c r="C80" s="7">
+        <v>126.9977286</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N80" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Y80" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B81" s="7">
+        <v>37.5819107</v>
+      </c>
+      <c r="C81" s="7">
+        <v>126.9995874</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N81" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B82" s="7">
+        <v>37.5824494</v>
+      </c>
+      <c r="C82" s="7">
+        <v>127.0000574</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N82" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T82" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U82" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y82" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" s="7">
+        <v>37.5815801</v>
+      </c>
+      <c r="C83" s="7">
+        <v>127.0008667</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K83" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N83" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y83" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B84" s="7">
+        <v>37.5818772</v>
+      </c>
+      <c r="C84" s="7">
+        <v>127.0005961</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84" s="7">
         <v>6.0</v>
       </c>
-      <c r="R79" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S79" s="7" t="s">
+      <c r="L84" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N84" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y84" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B85" s="7">
+        <v>37.5811635</v>
+      </c>
+      <c r="C85" s="7">
+        <v>127.0029588</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N85" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y85" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B86" s="7">
+        <v>37.5808434</v>
+      </c>
+      <c r="C86" s="7">
+        <v>127.0045346</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y86" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B87" s="7">
+        <v>37.5808979</v>
+      </c>
+      <c r="C87" s="7">
+        <v>127.0048051</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N87" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T87" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="U87" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="V87" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W87" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="X87" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y87" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B88" s="7">
+        <v>37.5805247</v>
+      </c>
+      <c r="C88" s="7">
+        <v>127.0045603</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G88" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="T79" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U79" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y79" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
+      <c r="H88" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K88" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L88" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Y88" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="A89" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B89" s="7">
+        <v>37.5804032</v>
+      </c>
+      <c r="C89" s="7">
+        <v>127.0047128</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K89" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="R89" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T89" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U89" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Y89" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
+      <c r="A90" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B90" s="7">
+        <v>37.5855329</v>
+      </c>
+      <c r="C90" s="7">
+        <v>127.0005779</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K90" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N90" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="S90" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="T90" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="U90" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y90" s="7">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="12"/>
@@ -10076,10 +10981,6 @@
     <row r="989" ht="15.75" customHeight="1">
       <c r="B989" s="12"/>
       <c r="C989" s="12"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="12"/>
-      <c r="C990" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10098,61 +10999,889 @@
     <hyperlink r:id="rId13" ref="H15"/>
     <hyperlink r:id="rId14" ref="H16"/>
     <hyperlink r:id="rId15" ref="H17"/>
-    <hyperlink r:id="rId16" ref="H19"/>
-    <hyperlink r:id="rId17" ref="H20"/>
-    <hyperlink r:id="rId18" ref="H21"/>
-    <hyperlink r:id="rId19" ref="H22"/>
-    <hyperlink r:id="rId20" ref="H23"/>
-    <hyperlink r:id="rId21" ref="H24"/>
-    <hyperlink r:id="rId22" ref="H25"/>
-    <hyperlink r:id="rId23" ref="H26"/>
-    <hyperlink r:id="rId24" ref="H27"/>
-    <hyperlink r:id="rId25" ref="H28"/>
-    <hyperlink r:id="rId26" ref="H29"/>
-    <hyperlink r:id="rId27" ref="H30"/>
-    <hyperlink r:id="rId28" ref="H31"/>
-    <hyperlink r:id="rId29" ref="H32"/>
-    <hyperlink r:id="rId30" ref="H35"/>
-    <hyperlink r:id="rId31" ref="H36"/>
-    <hyperlink r:id="rId32" ref="H38"/>
-    <hyperlink r:id="rId33" ref="H39"/>
-    <hyperlink r:id="rId34" ref="H41"/>
-    <hyperlink r:id="rId35" ref="H42"/>
-    <hyperlink r:id="rId36" ref="H43"/>
-    <hyperlink r:id="rId37" ref="H44"/>
-    <hyperlink r:id="rId38" ref="H45"/>
-    <hyperlink r:id="rId39" ref="H47"/>
-    <hyperlink r:id="rId40" ref="H48"/>
-    <hyperlink r:id="rId41" ref="H49"/>
-    <hyperlink r:id="rId42" ref="H50"/>
-    <hyperlink r:id="rId43" ref="H52"/>
-    <hyperlink r:id="rId44" ref="H53"/>
-    <hyperlink r:id="rId45" ref="H54"/>
-    <hyperlink r:id="rId46" ref="H55"/>
-    <hyperlink r:id="rId47" ref="H56"/>
-    <hyperlink r:id="rId48" location="d5f1698ae33748d3945de5d6c1225011" ref="H57"/>
-    <hyperlink r:id="rId49" ref="H58"/>
-    <hyperlink r:id="rId50" ref="H61"/>
-    <hyperlink r:id="rId51" ref="H62"/>
-    <hyperlink r:id="rId52" ref="H63"/>
-    <hyperlink r:id="rId53" ref="H64"/>
-    <hyperlink r:id="rId54" ref="H65"/>
-    <hyperlink r:id="rId55" ref="H67"/>
-    <hyperlink r:id="rId56" ref="H69"/>
-    <hyperlink r:id="rId57" ref="H70"/>
-    <hyperlink r:id="rId58" ref="H71"/>
-    <hyperlink r:id="rId59" ref="H72"/>
-    <hyperlink r:id="rId60" ref="H73"/>
-    <hyperlink r:id="rId61" ref="H74"/>
-    <hyperlink r:id="rId62" ref="H75"/>
-    <hyperlink r:id="rId63" ref="H76"/>
-    <hyperlink r:id="rId64" ref="H77"/>
-    <hyperlink r:id="rId65" ref="H78"/>
-    <hyperlink r:id="rId66" ref="H79"/>
+    <hyperlink r:id="rId16" ref="H18"/>
+    <hyperlink r:id="rId17" ref="H19"/>
+    <hyperlink r:id="rId18" ref="H20"/>
+    <hyperlink r:id="rId19" ref="H21"/>
+    <hyperlink r:id="rId20" ref="H22"/>
+    <hyperlink r:id="rId21" ref="H23"/>
+    <hyperlink r:id="rId22" ref="H24"/>
+    <hyperlink r:id="rId23" ref="H25"/>
+    <hyperlink r:id="rId24" ref="H26"/>
+    <hyperlink r:id="rId25" ref="H27"/>
+    <hyperlink r:id="rId26" ref="H28"/>
+    <hyperlink r:id="rId27" ref="H29"/>
+    <hyperlink r:id="rId28" ref="H30"/>
+    <hyperlink r:id="rId29" ref="H31"/>
+    <hyperlink r:id="rId30" ref="H34"/>
+    <hyperlink r:id="rId31" ref="H35"/>
+    <hyperlink r:id="rId32" ref="H37"/>
+    <hyperlink r:id="rId33" ref="H38"/>
+    <hyperlink r:id="rId34" ref="H40"/>
+    <hyperlink r:id="rId35" ref="H41"/>
+    <hyperlink r:id="rId36" ref="H42"/>
+    <hyperlink r:id="rId37" ref="H43"/>
+    <hyperlink r:id="rId38" ref="H44"/>
+    <hyperlink r:id="rId39" ref="H46"/>
+    <hyperlink r:id="rId40" ref="H47"/>
+    <hyperlink r:id="rId41" ref="H48"/>
+    <hyperlink r:id="rId42" ref="H49"/>
+    <hyperlink r:id="rId43" ref="H51"/>
+    <hyperlink r:id="rId44" ref="H52"/>
+    <hyperlink r:id="rId45" ref="H53"/>
+    <hyperlink r:id="rId46" ref="H54"/>
+    <hyperlink r:id="rId47" ref="H55"/>
+    <hyperlink r:id="rId48" location="d5f1698ae33748d3945de5d6c1225011" ref="H56"/>
+    <hyperlink r:id="rId49" ref="H57"/>
+    <hyperlink r:id="rId50" ref="H60"/>
+    <hyperlink r:id="rId51" ref="H61"/>
+    <hyperlink r:id="rId52" ref="H62"/>
+    <hyperlink r:id="rId53" ref="H63"/>
+    <hyperlink r:id="rId54" ref="H64"/>
+    <hyperlink r:id="rId55" ref="H66"/>
+    <hyperlink r:id="rId56" ref="H68"/>
+    <hyperlink r:id="rId57" ref="H69"/>
+    <hyperlink r:id="rId58" ref="H70"/>
+    <hyperlink r:id="rId59" ref="H71"/>
+    <hyperlink r:id="rId60" ref="H72"/>
+    <hyperlink r:id="rId61" ref="H73"/>
+    <hyperlink r:id="rId62" ref="H74"/>
+    <hyperlink r:id="rId63" ref="H75"/>
+    <hyperlink r:id="rId64" ref="H76"/>
+    <hyperlink r:id="rId65" ref="H77"/>
+    <hyperlink r:id="rId66" ref="H78"/>
+    <hyperlink r:id="rId67" ref="H79"/>
+    <hyperlink r:id="rId68" ref="H80"/>
+    <hyperlink r:id="rId69" ref="H81"/>
+    <hyperlink r:id="rId70" ref="H82"/>
+    <hyperlink r:id="rId71" ref="H83"/>
+    <hyperlink r:id="rId72" ref="H84"/>
+    <hyperlink r:id="rId73" ref="H85"/>
+    <hyperlink r:id="rId74" ref="H86"/>
+    <hyperlink r:id="rId75" ref="H87"/>
+    <hyperlink r:id="rId76" ref="H88"/>
+    <hyperlink r:id="rId77" ref="H89"/>
+    <hyperlink r:id="rId78" ref="H90"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId67"/>
+  <drawing r:id="rId79"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B71" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B85" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B87" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B88" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B89" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B90" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D18:G28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B999">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH(("0"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cafe_info.xlsx
+++ b/cafe_info.xlsx
@@ -4011,10 +4011,10 @@
         <v>206</v>
       </c>
       <c r="B33" s="7">
-        <v>37.6088949</v>
+        <v>37.58953</v>
       </c>
       <c r="C33" s="7">
-        <v>126.9327099</v>
+        <v>126.9991</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>207</v>

--- a/cafe_info.xlsx
+++ b/cafe_info.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="데이터1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="얼굴가려" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="제휴카페" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="얼굴가려" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="501">
   <si>
     <t>Name</t>
   </si>
@@ -98,7 +99,7 @@
     <t>서울 종로구 성균관로7길 3 지하1층</t>
   </si>
   <si>
-    <t>2시간 권장</t>
+    <t xml:space="preserve">2시간 </t>
   </si>
   <si>
     <t>4,000원</t>
@@ -137,7 +138,7 @@
     <t>서울 종로구 성균관로 30 1,2층</t>
   </si>
   <si>
-    <t>3시간 권장</t>
+    <t>3시간</t>
   </si>
   <si>
     <t>3,500원</t>
@@ -158,7 +159,7 @@
     <t>서울 종로구 성균관로4길 3 1, 2층</t>
   </si>
   <si>
-    <t>시간 제한 없음</t>
+    <t>무제한</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/JO6ohDYM2Tc</t>
@@ -178,7 +179,7 @@
     <t>서울 종로구 대학로11길 41-6 1층</t>
   </si>
   <si>
-    <t>1시간 권장</t>
+    <t>1시간</t>
   </si>
   <si>
     <t>6,000원</t>
@@ -224,7 +225,8 @@
     <t>서울 종로구 창경궁로26길 33 1층</t>
   </si>
   <si>
-    <t>평일 시간 제한 없음, 주말 2시간 권장</t>
+    <t>평일 무제한
+주말 2시간</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/wmcCeudUc1A</t>
@@ -242,7 +244,7 @@
     <t>서울 종로구 대학로9가길 14 디터틀</t>
   </si>
   <si>
-    <t>2~3시간 권장</t>
+    <t>2~3시간</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/_irfee1voD8</t>
@@ -259,6 +261,9 @@
   </si>
   <si>
     <t>서울 종로구 창경궁로26길 40 2층</t>
+  </si>
+  <si>
+    <t>2시간</t>
   </si>
   <si>
     <t>5,000원</t>
@@ -537,7 +542,7 @@
     <t>서울 동대문구 천장산로 28 1층</t>
   </si>
   <si>
-    <t>4시간 권장</t>
+    <t>4시간</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/qZOFRC4XOTA</t>
@@ -642,9 +647,6 @@
   </si>
   <si>
     <t>서울 종로구 대학로8가길 89 3층 카페 슬로스텝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">시간 제한 없음 </t>
   </si>
   <si>
     <t>https://youtube.com/shorts/wAwxyN2DTLs</t>
@@ -823,7 +825,8 @@
     <t>서울 동대문구 휘경로2길 5-2 2층</t>
   </si>
   <si>
-    <t>5시간 권장 / 만석 시 3시간 권장</t>
+    <t>5시간
+만석 시 3시간</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/WdRfnjdqBD4?feature=share</t>
@@ -1080,6 +1083,9 @@
     <t>서울 동대문구 경희대로3길 11</t>
   </si>
   <si>
+    <t>4시간 권장</t>
+  </si>
+  <si>
     <t>월~금 10:00~23:00
 토,일 12:00~22:30</t>
   </si>
@@ -1088,6 +1094,9 @@
   </si>
   <si>
     <t>서울특별시 동대문구 경희대로3길 8 1층8번가카페</t>
+  </si>
+  <si>
+    <t>2시간 권장</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/IOK0gTlP3OM</t>
@@ -1125,7 +1134,8 @@
     <t>서울특별시 동대문구 경희대로 5 가동 3층</t>
   </si>
   <si>
-    <t>시간 제한 없음 / 만석 시 2시간 권장</t>
+    <t>무제한
+만석 시 2시간</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/Psg4hz_aGRw</t>
@@ -1170,6 +1180,9 @@
   </si>
   <si>
     <t>서울특별시 동대문구 회기로21길 26</t>
+  </si>
+  <si>
+    <t>3시간 권장</t>
   </si>
   <si>
     <t>매일 08:00~23:00</t>
@@ -1238,7 +1251,8 @@
     <t>서울 종로구 창경궁로33길 12 1층</t>
   </si>
   <si>
-    <t>평일 3시간, 주말 권장 X</t>
+    <t>평일 3시간
+주말 권장 X</t>
   </si>
   <si>
     <t>5,500원</t>
@@ -1292,7 +1306,8 @@
     <t>서울 종로구 성균관로3길 15 1층</t>
   </si>
   <si>
-    <t>시간 제한 없음, 만석 시 3시간</t>
+    <t>무제한
+만석 시 3시간</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/zNXyShL8nLc</t>
@@ -1327,7 +1342,8 @@
     <t>서울 종로구 창경궁로 227 1층</t>
   </si>
   <si>
-    <t>평일 시간 제한 없음, 주말 권장 X</t>
+    <t>무제한 
+주말 권장 X</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/wZgqsvb_AuM</t>
@@ -1347,7 +1363,7 @@
     <t>서울 종로구 대명길 46 (명륜2가) 킹스 커피</t>
   </si>
   <si>
-    <t>권장 시간 5~6시간</t>
+    <t>5~6시간</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/eR_1iqdlDx8</t>
@@ -1430,6 +1446,10 @@
     <t>서울 종로구 대학로11길 38-6 1층</t>
   </si>
   <si>
+    <t>평일 무제한
+주말 권장 X</t>
+  </si>
+  <si>
     <t>https://youtube.com/shorts/TJZfebcc4fE?feature=share</t>
   </si>
   <si>
@@ -1505,7 +1525,8 @@
     <t>서울 종로구 동숭2길 9</t>
   </si>
   <si>
-    <t>평일 시간 제한 없음, 주말 웨이팅 있을 시 권장 X</t>
+    <t>평일 무제한
+주말 웨이팅 시 권장 X</t>
   </si>
   <si>
     <t>https://youtube.com/shorts/BVygtIqOuWg?feature=share</t>
@@ -1526,9 +1547,6 @@
     <t>서울 종로구 동숭길 50 1층</t>
   </si>
   <si>
-    <t xml:space="preserve">1시간 권장 </t>
-  </si>
-  <si>
     <t>https://youtube.com/shorts/_h-9n_aYcZc?feature=share</t>
   </si>
   <si>
@@ -1565,6 +1583,42 @@
     <t>월~금 10:00~22:00
 토 12:00~22:00
 일 12:00~20:00</t>
+  </si>
+  <si>
+    <t>카페명</t>
+  </si>
+  <si>
+    <t>해피아워</t>
+  </si>
+  <si>
+    <t>권장 시간</t>
+  </si>
+  <si>
+    <t>혜택</t>
+  </si>
+  <si>
+    <t>피어스</t>
+  </si>
+  <si>
+    <t>3시~</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>월, 화</t>
+  </si>
+  <si>
+    <t>책갈피 제공</t>
+  </si>
+  <si>
+    <t>홈스테드 대학로</t>
+  </si>
+  <si>
+    <t>평일</t>
+  </si>
+  <si>
+    <t>주말만 1시간</t>
   </si>
   <si>
     <t>학림</t>
@@ -1645,7 +1699,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1694,6 +1748,12 @@
         <bgColor rgb="FFF0F0F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border/>
@@ -1731,7 +1791,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1787,6 +1847,12 @@
     <xf borderId="0" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1823,6 +1889,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2595,16 +2665,16 @@
         <v>79</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>33</v>
@@ -2630,7 +2700,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="7">
         <v>37.58156</v>
@@ -2639,22 +2709,22 @@
         <v>127.0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>33</v>
@@ -2680,7 +2750,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7">
         <v>37.58229</v>
@@ -2689,10 +2759,10 @@
         <v>127.0004</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>53</v>
@@ -2701,10 +2771,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>32</v>
@@ -2757,7 +2827,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="7">
         <v>37.58242</v>
@@ -2766,10 +2836,10 @@
         <v>127.0011</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>47</v>
@@ -2778,10 +2848,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>33</v>
@@ -2807,7 +2877,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="7">
         <v>37.58248</v>
@@ -2816,10 +2886,10 @@
         <v>127.0016</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>47</v>
@@ -2828,10 +2898,10 @@
         <v>29</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>32</v>
@@ -2861,7 +2931,7 @@
         <v>2.0</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T13" s="7">
         <v>1.0</v>
@@ -2875,7 +2945,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" s="7">
         <v>37.58202</v>
@@ -2884,19 +2954,19 @@
         <v>127.0004</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>32</v>
@@ -2931,7 +3001,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="7">
         <v>37.58213</v>
@@ -2940,22 +3010,22 @@
         <v>127.0009</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -2985,7 +3055,7 @@
         <v>0.0</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T15" s="7">
         <v>1.0</v>
@@ -2999,7 +3069,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" s="7">
         <v>37.58204</v>
@@ -3008,10 +3078,10 @@
         <v>127.0006</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>47</v>
@@ -3020,10 +3090,10 @@
         <v>60</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>32</v>
@@ -3067,7 +3137,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="7">
         <v>37.58177</v>
@@ -3076,10 +3146,10 @@
         <v>127.0005</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>53</v>
@@ -3088,10 +3158,10 @@
         <v>60</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>32</v>
@@ -3135,7 +3205,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" s="7">
         <v>37.58151</v>
@@ -3144,10 +3214,10 @@
         <v>127.0006</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>47</v>
@@ -3156,10 +3226,10 @@
         <v>54</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>32</v>
@@ -3189,7 +3259,7 @@
         <v>0.0</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T18" s="7">
         <v>1.0</v>
@@ -3203,7 +3273,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" s="7">
         <v>37.598405</v>
@@ -3212,22 +3282,22 @@
         <v>127.054409</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -3262,7 +3332,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="7">
         <v>37.598225</v>
@@ -3271,22 +3341,22 @@
         <v>127.054467</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>32</v>
@@ -3327,7 +3397,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" s="7">
         <v>37.598259</v>
@@ -3336,10 +3406,10 @@
         <v>127.056572</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>47</v>
@@ -3348,10 +3418,10 @@
         <v>29</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>32</v>
@@ -3369,7 +3439,7 @@
         <v>17.0</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7">
         <v>1.0</v>
@@ -3380,7 +3450,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="7">
         <v>37.598267</v>
@@ -3389,22 +3459,22 @@
         <v>127.05679</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>32</v>
@@ -3436,7 +3506,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" s="7">
         <v>37.598614</v>
@@ -3445,22 +3515,22 @@
         <v>127.057414</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>32</v>
@@ -3495,7 +3565,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="7">
         <v>37.598675</v>
@@ -3504,22 +3574,22 @@
         <v>127.057873</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>32</v>
@@ -3563,7 +3633,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" s="7">
         <v>37.598633</v>
@@ -3572,22 +3642,22 @@
         <v>127.058051</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>32</v>
@@ -3613,7 +3683,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" s="7">
         <v>37.583174</v>
@@ -3622,22 +3692,22 @@
         <v>127.00347</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>33</v>
@@ -3661,13 +3731,13 @@
         <v>3.0</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T26" s="7">
         <v>1.0</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W26" s="7">
         <v>1.0</v>
@@ -3681,7 +3751,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B27" s="7">
         <v>37.583088</v>
@@ -3690,10 +3760,10 @@
         <v>127.003974</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>40</v>
@@ -3702,10 +3772,10 @@
         <v>29</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>32</v>
@@ -3731,7 +3801,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="7">
         <v>37.582758</v>
@@ -3740,22 +3810,22 @@
         <v>127.004605</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>32</v>
@@ -3799,7 +3869,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B29" s="7">
         <v>37.58114</v>
@@ -3808,22 +3878,22 @@
         <v>127.0047</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>34</v>
@@ -3849,7 +3919,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B30" s="7">
         <v>37.58097</v>
@@ -3858,10 +3928,10 @@
         <v>127.0041</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>47</v>
@@ -3870,10 +3940,10 @@
         <v>41</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>
@@ -3905,7 +3975,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" s="7">
         <v>37.58203</v>
@@ -3914,16 +3984,16 @@
         <v>127.0035</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>200</v>
@@ -3994,7 +4064,7 @@
         <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>60</v>
@@ -4052,7 +4122,7 @@
         <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>41</v>
@@ -4102,7 +4172,7 @@
         <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>29</v>
@@ -4141,7 +4211,7 @@
         <v>5.0</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T35" s="7">
         <v>1.0</v>
@@ -4199,7 +4269,7 @@
         <v>40</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>227</v>
@@ -4246,7 +4316,7 @@
         <v>127.0628962</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>230</v>
@@ -4293,7 +4363,7 @@
         <v>47</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>236</v>
@@ -4334,7 +4404,7 @@
         <v>239</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>41</v>
@@ -4529,7 +4599,7 @@
         <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>255</v>
@@ -4585,7 +4655,7 @@
         <v>47</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>260</v>
@@ -4644,7 +4714,7 @@
         <v>126.9972469</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>265</v>
@@ -4697,7 +4767,7 @@
         <v>269</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>29</v>
@@ -4768,7 +4838,7 @@
         <v>275</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>276</v>
@@ -4818,7 +4888,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>281</v>
@@ -4939,7 +5009,7 @@
         <v>290</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>60</v>
@@ -5121,7 +5191,7 @@
         <v>310</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>311</v>
@@ -5174,7 +5244,7 @@
         <v>47</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>316</v>
@@ -5233,7 +5303,7 @@
         <v>127.0510482</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>319</v>
@@ -5289,12 +5359,12 @@
         <v>127.0506068</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -5357,12 +5427,12 @@
         <v>127.0515547</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -5422,19 +5492,19 @@
         <v>127.0518815</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>332</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>32</v>
@@ -5469,7 +5539,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B60" s="7">
         <v>37.5927702</v>
@@ -5478,22 +5548,22 @@
         <v>127.0519653</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>32</v>
@@ -5546,7 +5616,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B61" s="7">
         <v>37.5925235</v>
@@ -5555,22 +5625,22 @@
         <v>127.052432</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F61" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>33</v>
@@ -5611,7 +5681,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B62" s="7">
         <v>37.5920336</v>
@@ -5620,22 +5690,22 @@
         <v>127.052158</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>33</v>
@@ -5661,7 +5731,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B63" s="7">
         <v>37.5927304</v>
@@ -5670,22 +5740,22 @@
         <v>127.0527277</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="F63" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>32</v>
@@ -5738,7 +5808,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B64" s="7">
         <v>37.5928679</v>
@@ -5747,22 +5817,22 @@
         <v>127.0531025</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>32</v>
@@ -5803,7 +5873,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B65" s="7">
         <v>37.5925983</v>
@@ -5812,19 +5882,19 @@
         <v>127.0534313</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>32</v>
@@ -5868,7 +5938,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B66" s="7">
         <v>37.591561</v>
@@ -5877,19 +5947,19 @@
         <v>127.053422</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E66" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>219</v>
@@ -5918,7 +5988,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B67" s="7">
         <v>37.591171</v>
@@ -5927,19 +5997,19 @@
         <v>127.054196</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>33</v>
@@ -5962,7 +6032,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B68" s="7">
         <v>37.5915229</v>
@@ -5971,22 +6041,22 @@
         <v>127.0551624</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="F68" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>33</v>
@@ -6021,7 +6091,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B69" s="7">
         <v>37.5933361</v>
@@ -6030,22 +6100,22 @@
         <v>127.0531156</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>32</v>
@@ -6071,7 +6141,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B70" s="7">
         <v>37.58431</v>
@@ -6080,22 +6150,22 @@
         <v>126.9992</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>32</v>
@@ -6148,7 +6218,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B71" s="7">
         <v>37.58438</v>
@@ -6157,22 +6227,22 @@
         <v>126.9988</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>34</v>
@@ -6202,7 +6272,7 @@
         <v>1.0</v>
       </c>
       <c r="S71" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T71" s="7">
         <v>2.0</v>
@@ -6216,7 +6286,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B72" s="7">
         <v>37.5871</v>
@@ -6225,22 +6295,22 @@
         <v>126.9967</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>32</v>
@@ -6275,7 +6345,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B73" s="7">
         <v>37.58322</v>
@@ -6284,22 +6354,22 @@
         <v>126.9973</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>33</v>
@@ -6334,7 +6404,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B74" s="7">
         <v>37.58261</v>
@@ -6343,22 +6413,22 @@
         <v>126.998</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>32</v>
@@ -6402,7 +6472,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B75" s="7">
         <v>37.58244</v>
@@ -6411,22 +6481,22 @@
         <v>126.9977</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>33</v>
@@ -6452,7 +6522,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B76" s="7">
         <v>37.58292</v>
@@ -6461,22 +6531,22 @@
         <v>126.999</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>33</v>
@@ -6506,7 +6576,7 @@
         <v>46.0</v>
       </c>
       <c r="S76" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T76" s="7">
         <v>1.0</v>
@@ -6515,7 +6585,7 @@
         <v>1.0</v>
       </c>
       <c r="V76" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W76" s="7">
         <v>1.0</v>
@@ -6529,7 +6599,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B77" s="7">
         <v>37.58293</v>
@@ -6538,22 +6608,22 @@
         <v>126.9992</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>32</v>
@@ -6597,7 +6667,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B78" s="7">
         <v>37.58298</v>
@@ -6606,19 +6676,19 @@
         <v>127.0</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>219</v>
@@ -6651,7 +6721,7 @@
         <v>0.0</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T78" s="7">
         <v>1.0</v>
@@ -6665,7 +6735,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B79" s="7">
         <v>37.5821758</v>
@@ -6674,22 +6744,22 @@
         <v>126.9985058</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>32</v>
@@ -6730,7 +6800,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B80" s="7">
         <v>37.5818121</v>
@@ -6739,19 +6809,19 @@
         <v>126.9977286</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>282</v>
@@ -6789,7 +6859,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B81" s="7">
         <v>37.5819107</v>
@@ -6798,22 +6868,22 @@
         <v>126.9995874</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>60</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>33</v>
@@ -6839,7 +6909,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B82" s="7">
         <v>37.5824494</v>
@@ -6848,22 +6918,22 @@
         <v>127.0000574</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>33</v>
@@ -6907,7 +6977,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B83" s="7">
         <v>37.5815801</v>
@@ -6916,22 +6986,22 @@
         <v>127.0008667</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>34</v>
@@ -6966,7 +7036,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B84" s="7">
         <v>37.5818772</v>
@@ -6975,10 +7045,10 @@
         <v>127.0005961</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>74</v>
@@ -6987,10 +7057,10 @@
         <v>29</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>33</v>
@@ -7025,7 +7095,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B85" s="7">
         <v>37.5811635</v>
@@ -7034,22 +7104,22 @@
         <v>127.0029588</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>33</v>
@@ -7075,7 +7145,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B86" s="7">
         <v>37.5808434</v>
@@ -7084,22 +7154,22 @@
         <v>127.0045346</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>32</v>
@@ -7134,7 +7204,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B87" s="7">
         <v>37.5808979</v>
@@ -7143,22 +7213,22 @@
         <v>127.0048051</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>33</v>
@@ -7167,7 +7237,7 @@
         <v>3.0</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M87" s="7" t="s">
         <v>34</v>
@@ -7176,7 +7246,7 @@
         <v>2.0</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P87" s="7" t="s">
         <v>35</v>
@@ -7185,7 +7255,7 @@
         <v>1.0</v>
       </c>
       <c r="R87" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="S87" s="7" t="s">
         <v>36</v>
@@ -7194,16 +7264,16 @@
         <v>2.0</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="V87" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W87" s="7">
         <v>1.0</v>
       </c>
       <c r="X87" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Y87" s="7">
         <v>0.0</v>
@@ -7211,7 +7281,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B88" s="7">
         <v>37.5805247</v>
@@ -7220,22 +7290,22 @@
         <v>127.0045603</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>469</v>
+        <v>53</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>33</v>
@@ -7252,7 +7322,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B89" s="7">
         <v>37.5804032</v>
@@ -7261,22 +7331,22 @@
         <v>127.0047128</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>32</v>
@@ -7306,7 +7376,7 @@
         <v>6.0</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T89" s="7">
         <v>1.0</v>
@@ -7320,7 +7390,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B90" s="7">
         <v>37.5855329</v>
@@ -7329,22 +7399,22 @@
         <v>127.0005779</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>33</v>
@@ -7365,7 +7435,7 @@
         <v>0.0</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q90" s="7">
         <v>1.0</v>
@@ -7374,7 +7444,7 @@
         <v>0.0</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T90" s="7">
         <v>1.0</v>
@@ -11079,6 +11149,95 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.43"/>
+    <col customWidth="1" min="2" max="2" width="19.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-500.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="20">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="20">
+        <v>-0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
@@ -11146,7 +11305,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="7">
         <v>1.0</v>
@@ -11154,7 +11313,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="7">
         <v>1.0</v>
@@ -11162,7 +11321,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="7">
         <v>1.0</v>
@@ -11170,7 +11329,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7">
         <v>1.0</v>
@@ -11178,7 +11337,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="7">
         <v>0.0</v>
@@ -11186,7 +11345,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" s="7">
         <v>1.0</v>
@@ -11194,7 +11353,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" s="7">
         <v>1.0</v>
@@ -11202,7 +11361,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" s="7">
         <v>1.0</v>
@@ -11210,7 +11369,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="B17" s="7">
         <v>0.0</v>
@@ -11218,18 +11377,18 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" s="7">
         <v>1.0</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>482</v>
+      <c r="D18" s="21" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" s="7">
         <v>1.0</v>
@@ -11237,7 +11396,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" s="7">
         <v>1.0</v>
@@ -11245,7 +11404,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21" s="7">
         <v>1.0</v>
@@ -11253,7 +11412,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="7">
         <v>1.0</v>
@@ -11261,7 +11420,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" s="7">
         <v>1.0</v>
@@ -11269,7 +11428,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="7">
         <v>0.0</v>
@@ -11277,7 +11436,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" s="7">
         <v>1.0</v>
@@ -11285,7 +11444,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" s="7">
         <v>1.0</v>
@@ -11293,7 +11452,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B27" s="7">
         <v>1.0</v>
@@ -11301,7 +11460,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B28" s="7">
         <v>1.0</v>
@@ -11309,7 +11468,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B29" s="7">
         <v>1.0</v>
@@ -11317,7 +11476,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B30" s="7">
         <v>1.0</v>
@@ -11325,7 +11484,7 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" s="7">
         <v>1.0</v>
@@ -11557,7 +11716,7 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B60" s="7">
         <v>1.0</v>
@@ -11565,7 +11724,7 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B61" s="7">
         <v>1.0</v>
@@ -11573,7 +11732,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B62" s="7">
         <v>1.0</v>
@@ -11581,7 +11740,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B63" s="7">
         <v>1.0</v>
@@ -11589,7 +11748,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B64" s="7">
         <v>1.0</v>
@@ -11597,7 +11756,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B65" s="7">
         <v>0.0</v>
@@ -11605,7 +11764,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B66" s="7">
         <v>1.0</v>
@@ -11613,7 +11772,7 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B67" s="7">
         <v>0.0</v>
@@ -11621,7 +11780,7 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B68" s="7">
         <v>1.0</v>
@@ -11629,7 +11788,7 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B69" s="7">
         <v>1.0</v>
@@ -11637,7 +11796,7 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B70" s="7">
         <v>1.0</v>
@@ -11645,7 +11804,7 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B71" s="7">
         <v>1.0</v>
@@ -11653,7 +11812,7 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B72" s="7">
         <v>1.0</v>
@@ -11661,7 +11820,7 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B73" s="7">
         <v>1.0</v>
@@ -11669,7 +11828,7 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B74" s="7">
         <v>1.0</v>
@@ -11677,7 +11836,7 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B75" s="7">
         <v>1.0</v>
@@ -11685,7 +11844,7 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B76" s="7">
         <v>1.0</v>
@@ -11693,7 +11852,7 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B77" s="7">
         <v>1.0</v>
@@ -11701,7 +11860,7 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B78" s="7">
         <v>1.0</v>
@@ -11709,7 +11868,7 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B79" s="7">
         <v>1.0</v>
@@ -11717,7 +11876,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B80" s="7">
         <v>1.0</v>
@@ -11725,7 +11884,7 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B81" s="7">
         <v>1.0</v>
@@ -11733,7 +11892,7 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="B82" s="7">
         <v>1.0</v>
@@ -11741,7 +11900,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B83" s="7">
         <v>1.0</v>
@@ -11749,7 +11908,7 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B84" s="7">
         <v>1.0</v>
@@ -11757,7 +11916,7 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B85" s="7">
         <v>1.0</v>
@@ -11765,7 +11924,7 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B86" s="7">
         <v>1.0</v>
@@ -11773,7 +11932,7 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B87" s="7">
         <v>1.0</v>
@@ -11781,7 +11940,7 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B88" s="7">
         <v>1.0</v>
@@ -11789,7 +11948,7 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B89" s="7">
         <v>1.0</v>
@@ -11797,7 +11956,7 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B90" s="7">
         <v>1.0</v>
@@ -11805,72 +11964,72 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="20" t="s">
-        <v>104</v>
+      <c r="A96" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="21" t="s">
-        <v>157</v>
+      <c r="A97" s="23" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="23" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="23" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="23" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="23" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="23" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="23" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="23" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="23" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="21" t="s">
-        <v>357</v>
+      <c r="A107" s="23" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="22" t="s">
-        <v>364</v>
+      <c r="A108" s="24" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
